--- a/汇总.xlsx
+++ b/汇总.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wode2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{91B41666-4DBA-4C35-B931-A4BAF35398EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{43621232-0314-43AA-BEBC-A9A7A0020150}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计划控制过程" sheetId="3" r:id="rId1"/>
     <sheet name="产品服务过程" sheetId="1" r:id="rId2"/>
     <sheet name="资源支持型过程" sheetId="2" r:id="rId3"/>
+    <sheet name="企业过程与组织关系" sheetId="4" r:id="rId4"/>
+    <sheet name="关键过程" sheetId="5" r:id="rId5"/>
+    <sheet name="定义数据类" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>产品/服务过程</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -286,6 +289,150 @@
   </si>
   <si>
     <t>计划和控制过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业过程与组织关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物加工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料请求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计业务处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款项管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金贷款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员计划（招聘、辞退、调动、培训）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营主管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产主管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务主管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事部主管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -601,6 +748,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,18 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,43 +836,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D010171-74C7-468F-957D-95C59A647C2F}">
   <dimension ref="D2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -1048,63 +1243,63 @@
   <sheetData>
     <row r="2" spans="4:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="4:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1136,80 +1331,80 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1222,13 +1417,13 @@
     <row r="21" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:2" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
+      <c r="B28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1262,151 +1457,151 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="4:9" ht="28.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="4:9" ht="28.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="4:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="4:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="4:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="9"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="4:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="8"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="4:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="4:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="4:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="4:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="8"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I15" s="1"/>
@@ -1431,4 +1626,283 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4110FAF3-AC78-4547-8AF2-C04C829CCAC7}">
+  <dimension ref="B1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="14.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
+      <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="42"/>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="42"/>
+      <c r="C20" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61765F8-5B69-4082-BFBB-A22F23A762AE}">
+  <dimension ref="G4:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="9" width="12.5546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G4:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A8A89-474D-4584-A354-9FB9FD6FD949}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>